--- a/Bank-Credit-Card-Default/Scalability/ScalabilitySummaryTable.xlsx
+++ b/Bank-Credit-Card-Default/Scalability/ScalabilitySummaryTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Egyetem Phd\Tézis\Default of credit card clients DataSet\ToGit\Scalability\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5AFAB50-1A3E-4ECC-96D5-30F646A05B05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F58E20CD-FB40-4739-A380-AD83E7D3CFB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{19F1D81B-97DA-46FC-AE0F-24CEE566E612}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="6">
   <si>
     <t>Magok száma</t>
   </si>
@@ -50,13 +50,16 @@
   <si>
     <t>Átlagos gyorsítás mértéke</t>
   </si>
+  <si>
+    <t>Gyorsítás mértéke (Amdahl)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="169" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -106,7 +109,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -117,7 +120,7 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -127,9 +130,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
@@ -225,20 +225,20 @@
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="5"/>
-                <c:pt idx="0" formatCode="0">
+                <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.875911706448441</c:v>
+                  <c:v>2.8759117064484405</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.3042584916583655</c:v>
+                  <c:v>3.304258491658365</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.741137261019484</c:v>
+                  <c:v>3.7065034655431135</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.6607156931048301</c:v>
+                  <c:v>4.6607156931048292</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -331,7 +331,7 @@
                   <c:v>8.2623457428858196E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.10240511338351653</c:v>
+                  <c:v>0.10961576587260363</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0.38481944434818177</c:v>
@@ -517,8 +517,21 @@
                       <a:schemeClr val="accent1"/>
                     </a:solidFill>
                   </a:rPr>
-                  <a:t>Átlagos futásidő (perc)</a:t>
+                  <a:t>Átlagos gyorsítás mértéke</a:t>
                 </a:r>
+                <a:r>
+                  <a:rPr lang="hu-HU" sz="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="accent1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t> a soros végrehajtáshoz képest</a:t>
+                </a:r>
+                <a:endParaRPr lang="hu-HU" sz="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="accent1"/>
+                  </a:solidFill>
+                </a:endParaRPr>
               </a:p>
             </c:rich>
           </c:tx>
@@ -548,7 +561,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -709,6 +722,7 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="677229328"/>
+        <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
@@ -719,6 +733,518 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="hu-HU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="hu-HU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>SummaryTable!$E$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Átlagos gyorsítás mértéke</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>SummaryTable!$D$20:$D$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>SummaryTable!$E$20:$E$24</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.8759117064484405</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.304258491658365</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.7065034655431135</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.6607156931048292</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-48D0-475D-9BE8-20F4B0815946}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>SummaryTable!$F$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Gyorsítás mértéke (Amdahl)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>SummaryTable!$D$20:$D$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>SummaryTable!$F$20:$F$24</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.0280090840272522</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.5740423098913672</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.5121727147450619</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.1420345489443386</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-48D0-475D-9BE8-20F4B0815946}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="715185936"/>
+        <c:axId val="715181776"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="715185936"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                  <a:lnSpc>
+                    <a:spcPct val="100000"/>
+                  </a:lnSpc>
+                  <a:spcBef>
+                    <a:spcPts val="0"/>
+                  </a:spcBef>
+                  <a:spcAft>
+                    <a:spcPts val="0"/>
+                  </a:spcAft>
+                  <a:buClrTx/>
+                  <a:buSzTx/>
+                  <a:buFontTx/>
+                  <a:buNone/>
+                  <a:tabLst/>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="hu-HU" sz="1200" b="0" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Processzormagok száma</a:t>
+                </a:r>
+                <a:endParaRPr lang="hu-HU" sz="1200">
+                  <a:effectLst/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:sysClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="hu-HU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="hu-HU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="715181776"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="715181776"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="hu-HU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="715185936"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="hu-HU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -803,6 +1329,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -1319,18 +1885,534 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>240030</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>7620</xdr:colOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>160020</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>121920</xdr:rowOff>
     </xdr:to>
@@ -1352,6 +2434,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>3809</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>124777</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>89535</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>93345</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Diagram 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6390903F-525E-46EE-905C-8F1FE949897E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1657,14 +2775,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12A87308-C2BD-43BE-A6A4-252BEFDB6230}">
-  <dimension ref="D3:I8"/>
+  <dimension ref="A3:J24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="4" max="4" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.21875" customWidth="1"/>
+    <col min="6" max="6" width="11.5546875" customWidth="1"/>
+    <col min="7" max="7" width="12.33203125" customWidth="1"/>
+    <col min="9" max="9" width="13.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="4:9" ht="43.2" x14ac:dyDescent="0.3">
@@ -1698,8 +2820,8 @@
         <f>F4/E4</f>
         <v>5.9675519406721167E-2</v>
       </c>
-      <c r="H4" s="8">
-        <f>1/(E4/$E$4)</f>
+      <c r="H4" s="5">
+        <f>$E$4/E4</f>
         <v>1</v>
       </c>
     </row>
@@ -1718,10 +2840,9 @@
         <v>6.5705798148693664E-2</v>
       </c>
       <c r="H5" s="5">
-        <f>1/(E5/$E$4)</f>
-        <v>2.875911706448441</v>
-      </c>
-      <c r="I5" s="7"/>
+        <f>$E$4/E5</f>
+        <v>2.8759117064484405</v>
+      </c>
     </row>
     <row r="6" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D6" s="2">
@@ -1738,8 +2859,8 @@
         <v>8.2623457428858196E-2</v>
       </c>
       <c r="H6" s="5">
-        <f t="shared" ref="H6:H8" si="1">1/(E6/$E$4)</f>
-        <v>3.3042584916583655</v>
+        <f t="shared" ref="H6:H8" si="1">$E$4/E6</f>
+        <v>3.304258491658365</v>
       </c>
       <c r="I6" s="7"/>
     </row>
@@ -1748,18 +2869,18 @@
         <v>12</v>
       </c>
       <c r="E7" s="4">
-        <v>147.25744567766543</v>
+        <v>148.63342827241681</v>
       </c>
       <c r="F7" s="4">
-        <v>15.079915421188355</v>
+        <v>16.292567074351666</v>
       </c>
       <c r="G7" s="3">
         <f t="shared" si="0"/>
-        <v>0.10240511338351653</v>
+        <v>0.10961576587260363</v>
       </c>
       <c r="H7" s="5">
         <f t="shared" si="1"/>
-        <v>3.741137261019484</v>
+        <v>3.7065034655431135</v>
       </c>
       <c r="I7" s="7"/>
     </row>
@@ -1779,9 +2900,97 @@
       </c>
       <c r="H8" s="5">
         <f t="shared" si="1"/>
-        <v>4.6607156931048301</v>
+        <v>4.6607156931048292</v>
       </c>
       <c r="I8" s="7"/>
+    </row>
+    <row r="19" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="D19" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A20" s="6"/>
+      <c r="B20" s="5"/>
+      <c r="D20" s="6">
+        <v>1</v>
+      </c>
+      <c r="E20" s="5">
+        <v>1</v>
+      </c>
+      <c r="F20" s="5">
+        <v>1</v>
+      </c>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A21" s="2"/>
+      <c r="B21" s="5"/>
+      <c r="D21" s="2">
+        <v>4</v>
+      </c>
+      <c r="E21" s="5">
+        <v>2.8759117064484405</v>
+      </c>
+      <c r="F21" s="5">
+        <v>3.0280090840272522</v>
+      </c>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A22" s="2"/>
+      <c r="B22" s="5"/>
+      <c r="D22" s="2">
+        <v>8</v>
+      </c>
+      <c r="E22" s="5">
+        <v>3.304258491658365</v>
+      </c>
+      <c r="F22" s="5">
+        <v>4.5740423098913672</v>
+      </c>
+      <c r="I22" s="5"/>
+      <c r="J22" s="5"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A23" s="2"/>
+      <c r="B23" s="5"/>
+      <c r="D23" s="2">
+        <v>12</v>
+      </c>
+      <c r="E23" s="5">
+        <v>3.7065034655431135</v>
+      </c>
+      <c r="F23" s="5">
+        <v>5.5121727147450619</v>
+      </c>
+      <c r="I23" s="5"/>
+      <c r="J23" s="5"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A24" s="2"/>
+      <c r="B24" s="5"/>
+      <c r="D24" s="2">
+        <v>16</v>
+      </c>
+      <c r="E24" s="5">
+        <v>4.6607156931048292</v>
+      </c>
+      <c r="F24" s="5">
+        <v>6.1420345489443386</v>
+      </c>
+      <c r="I24" s="5"/>
+      <c r="J24" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
